--- a/Miuyin_Yong_Wong_Tarea1_Analisis.xlsx
+++ b/Miuyin_Yong_Wong_Tarea1_Analisis.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="15">
   <si>
     <t>Selection</t>
   </si>
@@ -52,13 +52,7 @@
     <t>Indexacion</t>
   </si>
   <si>
-    <t>Suma</t>
-  </si>
-  <si>
     <t>Asignacion</t>
-  </si>
-  <si>
-    <t>Retun</t>
   </si>
   <si>
     <t>Insertion</t>
@@ -67,20 +61,23 @@
     <t>K6</t>
   </si>
   <si>
-    <t>Resta</t>
-  </si>
-  <si>
     <t>Return</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>resta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +109,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,12 +142,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,10 +185,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -203,7 +270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection</c:v>
+                  <c:v>Insertion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -302,79 +369,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1285.0</c:v>
+                  <c:v>445506.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4365.0</c:v>
+                  <c:v>3.591006E6</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9245.0</c:v>
+                  <c:v>1.2136506E7</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>15925.0</c:v>
+                  <c:v>2.8782006E7</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>24405.0</c:v>
+                  <c:v>5.6227506E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34685.0</c:v>
+                  <c:v>9.7173006E7</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>46765.0</c:v>
+                  <c:v>1.54318506E8</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>60645.0</c:v>
+                  <c:v>2.30364006E8</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>76325.0</c:v>
+                  <c:v>3.28009506E8</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>93805.0</c:v>
+                  <c:v>4.49955006E8</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>113085.0</c:v>
+                  <c:v>5.98900506E8</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>134165.0</c:v>
+                  <c:v>7.77546006E8</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>157045.0</c:v>
+                  <c:v>9.88591506E8</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>181725.0</c:v>
+                  <c:v>1.234737006E9</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>208205.0</c:v>
+                  <c:v>1.518682506E9</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>236485.0</c:v>
+                  <c:v>1.843128006E9</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>266565.0</c:v>
+                  <c:v>2.210773506E9</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>298445.0</c:v>
+                  <c:v>2.624319006E9</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>332125.0</c:v>
+                  <c:v>3.086464506E9</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>367605.0</c:v>
+                  <c:v>3.599910006E9</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>404885.0</c:v>
+                  <c:v>4.167355506E9</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>443965.0</c:v>
+                  <c:v>4.791501006E9</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>484845.0</c:v>
+                  <c:v>5.475046506E9</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>527525.0</c:v>
+                  <c:v>6.220692006E9</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>572005.0</c:v>
+                  <c:v>7.031137506E9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,7 +457,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion</c:v>
+                  <c:v>Selection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -489,79 +556,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1305.0</c:v>
+                  <c:v>643506.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4605.0</c:v>
+                  <c:v>5.187006E6</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9905.0</c:v>
+                  <c:v>1.7530506E7</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>17205.0</c:v>
+                  <c:v>4.1574006E7</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>26505.0</c:v>
+                  <c:v>8.1217506E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37805.0</c:v>
+                  <c:v>1.40361006E8</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>51105.0</c:v>
+                  <c:v>2.22904506E8</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>66405.0</c:v>
+                  <c:v>3.32748006E8</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>83705.0</c:v>
+                  <c:v>4.73791506E8</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>103005.0</c:v>
+                  <c:v>6.49935006E8</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>124305.0</c:v>
+                  <c:v>8.65078506E8</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>147605.0</c:v>
+                  <c:v>1.123122006E9</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>172905.0</c:v>
+                  <c:v>1.427965506E9</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>200205.0</c:v>
+                  <c:v>1.783509006E9</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>229505.0</c:v>
+                  <c:v>2.193652506E9</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>260805.0</c:v>
+                  <c:v>2.662296006E9</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>294105.0</c:v>
+                  <c:v>3.193339506E9</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>329405.0</c:v>
+                  <c:v>3.790683006E9</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>366705.0</c:v>
+                  <c:v>4.458226506E9</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>406005.0</c:v>
+                  <c:v>5.199870006E9</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>447305.0</c:v>
+                  <c:v>6.019513506E9</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>490605.0</c:v>
+                  <c:v>6.921057006E9</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>535905.0</c:v>
+                  <c:v>7.908400506E9</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>583205.0</c:v>
+                  <c:v>8.985444006E9</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>632505.0</c:v>
+                  <c:v>1.0156087506E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,11 +645,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139596072"/>
-        <c:axId val="2126913432"/>
+        <c:axId val="2117817096"/>
+        <c:axId val="2117820072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139596072"/>
+        <c:axId val="2117817096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126913432"/>
+        <c:crossAx val="2117820072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -600,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126913432"/>
+        <c:axId val="2117820072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -611,7 +678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139596072"/>
+        <c:crossAx val="2117817096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -662,7 +729,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection</c:v>
+                  <c:v>Insertion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -761,79 +828,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>675030.0</c:v>
+                  <c:v>1.8998100035E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.65003E6</c:v>
+                  <c:v>1.51996200035E11</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>5.92503E6</c:v>
+                  <c:v>5.12994300035E11</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.050003E7</c:v>
+                  <c:v>1.215992400035E12</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.637503E7</c:v>
+                  <c:v>2.374990500035E12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.355003E7</c:v>
+                  <c:v>4.103988600035E12</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>3.202503E7</c:v>
+                  <c:v>6.516986700035E12</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>4.180003E7</c:v>
+                  <c:v>9.727984800035E12</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>5.287503E7</c:v>
+                  <c:v>1.3850982900035E13</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>6.525003E7</c:v>
+                  <c:v>1.8999981000035E13</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>7.892503E7</c:v>
+                  <c:v>2.5288979100035E13</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>9.390003E7</c:v>
+                  <c:v>3.2831977200035E13</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1.1017503E8</c:v>
+                  <c:v>4.1742975300035E13</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.2775003E8</c:v>
+                  <c:v>5.2135973400035E13</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>1.4662503E8</c:v>
+                  <c:v>6.4124971500035E13</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>1.6680003E8</c:v>
+                  <c:v>7.7823969600035E13</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>1.8827503E8</c:v>
+                  <c:v>9.3346967700035E13</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2.1105003E8</c:v>
+                  <c:v>1.10807965800035E14</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>2.3512503E8</c:v>
+                  <c:v>1.30320963900035E14</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>2.6050003E8</c:v>
+                  <c:v>1.51999962000035E14</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>2.8717503E8</c:v>
+                  <c:v>1.75958960100035E14</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>3.1515003E8</c:v>
+                  <c:v>2.02311958200035E14</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>3.4442503E8</c:v>
+                  <c:v>2.31172956300035E14</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>3.7500003E8</c:v>
+                  <c:v>2.62655954400035E14</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>4.0687503E8</c:v>
+                  <c:v>2.96874952500035E14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -849,7 +916,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion</c:v>
+                  <c:v>Selection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -948,79 +1015,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>870530.0</c:v>
+                  <c:v>2.6772322535E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.44103E6</c:v>
+                  <c:v>2.14194645035E11</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>7.71153E6</c:v>
+                  <c:v>7.22916967535E11</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.368203E7</c:v>
+                  <c:v>1.713589290035E12</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.135253E7</c:v>
+                  <c:v>3.346861612535E12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.072303E7</c:v>
+                  <c:v>5.783383935035E12</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>4.179353E7</c:v>
+                  <c:v>9.183806257535E12</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>5.456403E7</c:v>
+                  <c:v>1.3708778580035E13</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.903453E7</c:v>
+                  <c:v>1.9518950902535E13</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>8.520503E7</c:v>
+                  <c:v>2.6774973225035E13</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>1.0307553E8</c:v>
+                  <c:v>3.5637495547535E13</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.2264603E8</c:v>
+                  <c:v>4.6267167870035E13</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1.4391653E8</c:v>
+                  <c:v>5.8824640192535E13</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.6688703E8</c:v>
+                  <c:v>7.3470562515035E13</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>1.9155753E8</c:v>
+                  <c:v>9.0365584837535E13</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2.1792803E8</c:v>
+                  <c:v>1.09670357160035E14</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>2.4599853E8</c:v>
+                  <c:v>1.31545529482535E14</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2.7576903E8</c:v>
+                  <c:v>1.56151751805035E14</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>3.0723953E8</c:v>
+                  <c:v>1.83649674127535E14</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>3.4041003E8</c:v>
+                  <c:v>2.14199946450035E14</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3.7528053E8</c:v>
+                  <c:v>2.47963218772535E14</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>4.1185103E8</c:v>
+                  <c:v>2.85100141095035E14</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>4.5012153E8</c:v>
+                  <c:v>3.25771363417535E14</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>4.9009203E8</c:v>
+                  <c:v>3.70137535740035E14</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>5.3176253E8</c:v>
+                  <c:v>4.18359308062535E14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,11 +1104,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127452680"/>
-        <c:axId val="2140002360"/>
+        <c:axId val="2117904152"/>
+        <c:axId val="2117907096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127452680"/>
+        <c:axId val="2117904152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140002360"/>
+        <c:crossAx val="2117907096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1126,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140002360"/>
+        <c:axId val="2117907096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127452680"/>
+        <c:crossAx val="2117904152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1121,7 +1188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection</c:v>
+                  <c:v>Insertion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1136,79 +1203,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1050.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1100.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,79 +1287,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>546065.0</c:v>
+                  <c:v>7.078516E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.117065E6</c:v>
+                  <c:v>5.7057016E7</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4.713065E6</c:v>
+                  <c:v>1.92835516E8</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>8.334065E6</c:v>
+                  <c:v>4.57314016E8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.2980065E7</c:v>
+                  <c:v>8.93392516E8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8651065E7</c:v>
+                  <c:v>1.543971016E9</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>2.5347065E7</c:v>
+                  <c:v>2.451949516E9</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>3.3068065E7</c:v>
+                  <c:v>3.660228016E9</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>4.1814065E7</c:v>
+                  <c:v>5.211706516E9</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>5.1585065E7</c:v>
+                  <c:v>7.149285016E9</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>6.2381065E7</c:v>
+                  <c:v>9.515863516E9</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>7.4202065E7</c:v>
+                  <c:v>1.2354342016E10</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>8.7048065E7</c:v>
+                  <c:v>1.5707620516E10</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.00919065E8</c:v>
+                  <c:v>1.9618599016E10</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>1.15815065E8</c:v>
+                  <c:v>2.4130177516E10</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>1.31736065E8</c:v>
+                  <c:v>2.9285256016E10</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>1.48682065E8</c:v>
+                  <c:v>3.5126734516E10</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>1.66653065E8</c:v>
+                  <c:v>4.1697513016E10</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>1.85649065E8</c:v>
+                  <c:v>4.9040491516E10</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>2.05670065E8</c:v>
+                  <c:v>5.7198570016E10</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>2.26716065E8</c:v>
+                  <c:v>6.6214648516E10</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>2.48787065E8</c:v>
+                  <c:v>7.6131627016E10</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>2.71883065E8</c:v>
+                  <c:v>8.6992405516E10</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>2.96004065E8</c:v>
+                  <c:v>9.8839884016E10</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>3.21150065E8</c:v>
+                  <c:v>1.11716962516E11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,7 +1375,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion</c:v>
+                  <c:v>Selection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1323,79 +1390,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>50.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>150.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>200.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>450.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>500.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>550.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>650.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>750.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>850.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>900.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>950.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1050.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1100.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1150.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,79 +1474,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>829565.0</c:v>
+                  <c:v>9.444616E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.259065E6</c:v>
+                  <c:v>7.6129216E7</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>7.288565E6</c:v>
+                  <c:v>2.57293816E8</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.2918065E7</c:v>
+                  <c:v>6.10178416E8</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.0147565E7</c:v>
+                  <c:v>1.192023016E9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8977065E7</c:v>
+                  <c:v>2.060067616E9</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>3.9406565E7</c:v>
+                  <c:v>3.271552216E9</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>5.1436065E7</c:v>
+                  <c:v>4.883716816E9</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.5065565E7</c:v>
+                  <c:v>6.953801416E9</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>8.0295065E7</c:v>
+                  <c:v>9.539046016E9</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>9.7124565E7</c:v>
+                  <c:v>1.2696690616E10</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.15554065E8</c:v>
+                  <c:v>1.6483975216E10</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1.35583565E8</c:v>
+                  <c:v>2.0958139816E10</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.57213065E8</c:v>
+                  <c:v>2.6176424416E10</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>1.80442565E8</c:v>
+                  <c:v>3.2196069016E10</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2.05272065E8</c:v>
+                  <c:v>3.9074313616E10</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>2.31701565E8</c:v>
+                  <c:v>4.6868398216E10</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2.59731065E8</c:v>
+                  <c:v>5.5635562816E10</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>2.89360565E8</c:v>
+                  <c:v>6.5433047416E10</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>3.20590065E8</c:v>
+                  <c:v>7.6318092016E10</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3.53419565E8</c:v>
+                  <c:v>8.8347936616E10</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>3.87849065E8</c:v>
+                  <c:v>1.01579821216E11</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>4.23878565E8</c:v>
+                  <c:v>1.16070985816E11</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>4.61508065E8</c:v>
+                  <c:v>1.31878670416E11</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>5.00737565E8</c:v>
+                  <c:v>1.49060115016E11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,11 +1563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123887960"/>
-        <c:axId val="2140005736"/>
+        <c:axId val="2116473048"/>
+        <c:axId val="2121937544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2123887960"/>
+        <c:axId val="2116473048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,7 +1577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140005736"/>
+        <c:crossAx val="2121937544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1518,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2140005736"/>
+        <c:axId val="2121937544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123887960"/>
+        <c:crossAx val="2116473048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1580,7 +1647,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection</c:v>
+                  <c:v>Insertion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1679,79 +1746,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>9.038005E8</c:v>
+                  <c:v>4.4999955000006E15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6076005E9</c:v>
+                  <c:v>3.59999910000006E16</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>8.1114005E9</c:v>
+                  <c:v>1.21499986500001E17</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.44152005E10</c:v>
+                  <c:v>2.87999982000001E17</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.25190005E10</c:v>
+                  <c:v>5.62499977500001E17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.24228005E10</c:v>
+                  <c:v>9.71999973000001E17</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>4.41266005E10</c:v>
+                  <c:v>1.5434999685E18</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>5.76304005E10</c:v>
+                  <c:v>2.303999964E18</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>7.29342005E10</c:v>
+                  <c:v>3.2804999595E18</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>9.00380005E10</c:v>
+                  <c:v>4.499999955E18</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>1.089418005E11</c:v>
+                  <c:v>5.9894999505E18</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.296456005E11</c:v>
+                  <c:v>7.775999946E18</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1.521494005E11</c:v>
+                  <c:v>9.8864999415E18</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.764532005E11</c:v>
+                  <c:v>1.2347999937E19</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>2.025570005E11</c:v>
+                  <c:v>1.51874999325E19</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2.304608005E11</c:v>
+                  <c:v>1.8431999928E19</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>2.601646005E11</c:v>
+                  <c:v>2.21084999235E19</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2.916684005E11</c:v>
+                  <c:v>2.6243999919E19</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>3.249722005E11</c:v>
+                  <c:v>3.08654999145E19</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>3.600760005E11</c:v>
+                  <c:v>3.599999991E19</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3.969798005E11</c:v>
+                  <c:v>4.16744999055E19</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>4.356836005E11</c:v>
+                  <c:v>4.7915999901E19</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>4.761874005E11</c:v>
+                  <c:v>5.47514998965E19</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>5.184912005E11</c:v>
+                  <c:v>6.2207999892E19</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>5.625950005E11</c:v>
+                  <c:v>7.03124998875E19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,7 +1834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion</c:v>
+                  <c:v>Selection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1866,79 +1933,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1.1030005E9</c:v>
+                  <c:v>6.4999935000006E15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4060005E9</c:v>
+                  <c:v>5.19999870000006E16</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>9.9090005E9</c:v>
+                  <c:v>1.75499980500001E17</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.76120005E10</c:v>
+                  <c:v>4.15999974000001E17</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.75150005E10</c:v>
+                  <c:v>8.12499967500001E17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.96180005E10</c:v>
+                  <c:v>1.403999961E18</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>5.39210005E10</c:v>
+                  <c:v>2.2294999545E18</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>7.04240005E10</c:v>
+                  <c:v>3.327999948E18</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>8.91270005E10</c:v>
+                  <c:v>4.7384999415E18</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>1.100300005E11</c:v>
+                  <c:v>6.499999935E18</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>1.331330005E11</c:v>
+                  <c:v>8.6514999285E18</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.584360005E11</c:v>
+                  <c:v>1.1231999922E19</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1.859390005E11</c:v>
+                  <c:v>1.42804999155E19</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>2.156420005E11</c:v>
+                  <c:v>1.7835999909E19</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>2.475450005E11</c:v>
+                  <c:v>2.19374999025E19</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2.816480005E11</c:v>
+                  <c:v>2.6623999896E19</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>3.179510005E11</c:v>
+                  <c:v>3.19344998895E19</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>3.564540005E11</c:v>
+                  <c:v>3.7907999883E19</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>3.971570005E11</c:v>
+                  <c:v>4.45834998765E19</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>4.400600005E11</c:v>
+                  <c:v>5.199999987E19</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>4.851630005E11</c:v>
+                  <c:v>6.01964998635E19</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>5.324660005E11</c:v>
+                  <c:v>6.9211999857E19</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>5.819690005E11</c:v>
+                  <c:v>7.90854998505E19</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>6.336720005E11</c:v>
+                  <c:v>8.9855999844E19</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>6.875750005E11</c:v>
+                  <c:v>1.015624998375E20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,11 +2022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128994680"/>
-        <c:axId val="2127666280"/>
+        <c:axId val="2116622248"/>
+        <c:axId val="2116625192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128994680"/>
+        <c:axId val="2116622248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127666280"/>
+        <c:crossAx val="2116625192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1977,7 +2044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127666280"/>
+        <c:axId val="2116625192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1988,7 +2055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128994680"/>
+        <c:crossAx val="2116622248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2039,7 +2106,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Selection</c:v>
+                  <c:v>Insertion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2054,79 +2121,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10000.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60000.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70000.0</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80000.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90000.0</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100000.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110000.0</c:v>
+                  <c:v>550.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120000.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130000.0</c:v>
+                  <c:v>650.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140000.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150000.0</c:v>
+                  <c:v>750.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160000.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170000.0</c:v>
+                  <c:v>850.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180000.0</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190000.0</c:v>
+                  <c:v>950.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200000.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210000.0</c:v>
+                  <c:v>1050.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220000.0</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230000.0</c:v>
+                  <c:v>1150.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240000.0</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250000.0</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2138,79 +2205,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4.901580015E9</c:v>
+                  <c:v>1.614978757E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9603160015E10</c:v>
+                  <c:v>1.2923707507E11</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>4.4104740015E10</c:v>
+                  <c:v>4.3619936257E11</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>7.8406320015E10</c:v>
+                  <c:v>1.03397415007E12</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>1.22507900015E11</c:v>
+                  <c:v>2.01949893757E12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.76409480015E11</c:v>
+                  <c:v>3.48971122507E12</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>2.40111060015E11</c:v>
+                  <c:v>5.54154851257E12</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>3.13612640015E11</c:v>
+                  <c:v>8.27194830007E12</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>3.96914220015E11</c:v>
+                  <c:v>1.177784808757E13</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>4.90015800015E11</c:v>
+                  <c:v>1.615618537507E13</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>5.92917380015E11</c:v>
+                  <c:v>2.150389766257E13</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>7.05618960015E11</c:v>
+                  <c:v>2.791792245007E13</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>8.28120540015E11</c:v>
+                  <c:v>3.549519723757E13</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>9.60422120015E11</c:v>
+                  <c:v>4.433265952507E13</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>1.102523700015E12</c:v>
+                  <c:v>5.452724681257E13</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>1.254425280015E12</c:v>
+                  <c:v>6.617589660007E13</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>1.416126860015E12</c:v>
+                  <c:v>7.937554638757E13</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>1.587628440015E12</c:v>
+                  <c:v>9.422313367507E13</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>1.768930020015E12</c:v>
+                  <c:v>1.1081559596257E14</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>1.960031600015E12</c:v>
+                  <c:v>1.2924987075007E14</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>2.160933180015E12</c:v>
+                  <c:v>1.4962289553757E14</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>2.371634760015E12</c:v>
+                  <c:v>1.7203160782507E14</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>2.592136340015E12</c:v>
+                  <c:v>1.9657294511257E14</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>2.822437920015E12</c:v>
+                  <c:v>2.2334384490007E14</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>3.062539500015E12</c:v>
+                  <c:v>2.5244124468757E14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2293,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Insertion</c:v>
+                  <c:v>Selection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2241,79 +2308,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10000.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20000.0</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30000.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000.0</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000.0</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60000.0</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70000.0</c:v>
+                  <c:v>350.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80000.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90000.0</c:v>
+                  <c:v>450.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100000.0</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110000.0</c:v>
+                  <c:v>550.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120000.0</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130000.0</c:v>
+                  <c:v>650.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>140000.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150000.0</c:v>
+                  <c:v>750.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160000.0</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>170000.0</c:v>
+                  <c:v>850.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>180000.0</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>190000.0</c:v>
+                  <c:v>950.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>200000.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>210000.0</c:v>
+                  <c:v>1050.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>220000.0</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230000.0</c:v>
+                  <c:v>1150.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>240000.0</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>250000.0</c:v>
+                  <c:v>1250.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2325,79 +2392,79 @@
                 <c:formatCode>#,##0;\-#,##0</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8.001400015E9</c:v>
+                  <c:v>2.164758757E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2002800015E10</c:v>
+                  <c:v>1.7323267507E11</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="General">
-                  <c:v>7.2004200015E10</c:v>
+                  <c:v>5.8469276257E11</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1.28005600015E11</c:v>
+                  <c:v>1.38596535007E12</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="General">
-                  <c:v>2.00007000015E11</c:v>
+                  <c:v>2.70698793757E12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.88008400015E11</c:v>
+                  <c:v>4.67769802507E12</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="General">
-                  <c:v>3.92009800015E11</c:v>
+                  <c:v>7.42803311257E12</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="General">
-                  <c:v>5.12011200015E11</c:v>
+                  <c:v>1.108793070007E13</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>6.48012600015E11</c:v>
+                  <c:v>1.578732828757E13</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>8.00014000015E11</c:v>
+                  <c:v>2.165616337507E13</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>9.68015400015E11</c:v>
+                  <c:v>2.882437346257E13</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>1.152016800015E12</c:v>
+                  <c:v>3.742189605007E13</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>1.352018200015E12</c:v>
+                  <c:v>4.757866863757E13</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="General">
-                  <c:v>1.568019600015E12</c:v>
+                  <c:v>5.942462872507E13</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="General">
-                  <c:v>1.800021000015E12</c:v>
+                  <c:v>7.308971381257E13</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="General">
-                  <c:v>2.048022400015E12</c:v>
+                  <c:v>8.870386140007E13</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
-                  <c:v>2.312023800015E12</c:v>
+                  <c:v>1.0639700898757E14</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="General">
-                  <c:v>2.592025200015E12</c:v>
+                  <c:v>1.2629909407507E14</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="General">
-                  <c:v>2.888026600015E12</c:v>
+                  <c:v>1.4854005416257E14</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="General">
-                  <c:v>3.200028000015E12</c:v>
+                  <c:v>1.7324982675007E14</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="General">
-                  <c:v>3.528029400015E12</c:v>
+                  <c:v>2.0055834933757E14</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="General">
-                  <c:v>3.872030800015E12</c:v>
+                  <c:v>2.3059555942507E14</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="General">
-                  <c:v>4.232032200015E12</c:v>
+                  <c:v>2.6349139451257E14</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
-                  <c:v>4.608033600015E12</c:v>
+                  <c:v>2.9937579210007E14</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>5.000035000015E12</c:v>
+                  <c:v>3.3837868968757E14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,11 +2481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2141958200"/>
-        <c:axId val="2139817352"/>
+        <c:axId val="2127705928"/>
+        <c:axId val="2130936072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2141958200"/>
+        <c:axId val="2127705928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139817352"/>
+        <c:crossAx val="2130936072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2436,7 +2503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139817352"/>
+        <c:axId val="2130936072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +2514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141958200"/>
+        <c:crossAx val="2127705928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2473,16 +2540,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2509,19 +2576,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>520700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2543,16 +2610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2578,16 +2645,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2613,20 +2680,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2899,7 +2966,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2909,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2921,15 +2988,14 @@
     <col min="5" max="5" width="10.83203125" style="1"/>
     <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="4"/>
+    <col min="13" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
@@ -2941,34 +3007,16 @@
       <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -2976,19 +3024,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -2996,19 +3035,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -3016,35 +3046,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5">
         <v>10</v>
@@ -3124,212 +3145,212 @@
     </row>
     <row r="11" spans="1:26" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
-        <f>B10^2*(2*C4+C3+C6)+B10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>1285</v>
+        <f>((B10-1)*(C3+C4+3*C6))*((B10*(B10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>445506</v>
       </c>
       <c r="C11" s="4">
-        <f>C10^2*(2*C4+C3+C6)+C10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>4365</v>
+        <f>((C10-1)*(C3+C4+3*C6))*((C10*(C10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3591006</v>
       </c>
       <c r="D11" s="1">
-        <f>D10^2*(2*C4+C3+C6)+D10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>9245</v>
+        <f>((D10-1)*(C3+C4+3*C6))*((D10*(D10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>12136506</v>
       </c>
       <c r="E11" s="1">
-        <f>E10^2*(2*C4+C3+C6)+E10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>15925</v>
+        <f>((E10-1)*(C3+C4+3*C6))*((E10*(E10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>28782006</v>
       </c>
       <c r="F11" s="1">
-        <f>F10^2*(2*C4+C3+C6)+F10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>24405</v>
+        <f>((F10-1)*(C3+C4+3*C6))*((F10*(F10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>56227506</v>
       </c>
       <c r="G11" s="4">
-        <f>G10^2*(2*C4+C3+C6)+G10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>34685</v>
+        <f>((G10-1)*(C3+C4+3*C6))*((G10*(G10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>97173006</v>
       </c>
       <c r="H11" s="1">
-        <f>H10^2*(2*C4+C3+C6)+H10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>46765</v>
+        <f>((H10-1)*(C3+C4+3*C6))*((H10*(H10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>154318506</v>
       </c>
       <c r="I11" s="1">
-        <f>I10^2*(2*C4+C3+C6)+I10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>60645</v>
+        <f>((I10-1)*(C3+C4+3*C6))*((I10*(I10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>230364006</v>
       </c>
       <c r="J11" s="1">
-        <f>J10^2*(2*C4+C3+C6)+J10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>76325</v>
+        <f>((J10-1)*(C3+C4+3*C6))*((J10*(J10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>328009506</v>
       </c>
       <c r="K11" s="1">
-        <f>K10^2*(2*C4+C3+C6)+K10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>93805</v>
+        <f>((K10-1)*(C3+C4+3*C6))*((K10*(K10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>449955006</v>
       </c>
       <c r="L11" s="1">
-        <f>L10^2*(2*C4+C3+C6)+L10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>113085</v>
+        <f>((L10-1)*(C3+C4+3*C6))*((L10*(L10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>598900506</v>
       </c>
       <c r="M11" s="1">
-        <f>M10^2*(2*C4+C3+C6)+M10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>134165</v>
+        <f>((M10-1)*(C3+C4+3*C6))*((M10)*(M10+1)/2*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>777546006</v>
       </c>
       <c r="N11" s="1">
-        <f>N10^2*(2*C4+C3+C6)+N10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>157045</v>
+        <f>((N10-1)*(C3+C4+3*C6))*((N10*(N10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>988591506</v>
       </c>
       <c r="O11" s="1">
-        <f>O10^2*(2*C4+C3+C6)+O10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>181725</v>
+        <f>((O10-1)*(C3+C4+3*C6))*((O10*(O10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1234737006</v>
       </c>
       <c r="P11" s="1">
-        <f>P10^2*(2*C4+C3+C6)+P10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>208205</v>
+        <f>((P10-1)*(C3+C4+3*C6))*((P10*(P10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1518682506</v>
       </c>
       <c r="Q11" s="1">
-        <f>Q10^2*(2*C4+C3+C6)+Q10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>236485</v>
+        <f>((Q10-1)*(C3+C4+3*C6))*((Q10*(Q10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1843128006</v>
       </c>
       <c r="R11" s="1">
-        <f>R10^2*(2*C4+C3+C6)+R10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>266565</v>
+        <f>((R10-1)*(C3+C4+3*C6))*((R10*(R10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2210773506</v>
       </c>
       <c r="S11" s="1">
-        <f>S10^2*(2*C4+C3+C6)+S10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>298445</v>
+        <f>((S10-1)*(C3+C4+3*C6))*((S10*(S10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2624319006</v>
       </c>
       <c r="T11" s="1">
-        <f>T10^2*(2*C4+C3+C6)+T10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>332125</v>
+        <f>((T10-1)*(C3+C4+3*C6))*((T10*(T10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3086464506</v>
       </c>
       <c r="U11" s="1">
-        <f>U10^2*(2*C4+C3+C6)+U10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>367605</v>
+        <f>((U10-1)*(C3+C4+3*C6))*((U10*(U10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3599910006</v>
       </c>
       <c r="V11" s="1">
-        <f>V10^2*(2*C4+C3+C6)+V10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>404885</v>
+        <f>((V10-1)*(C3+C4+3*C6))*((V10*(V10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>4167355506</v>
       </c>
       <c r="W11" s="1">
-        <f>W10^2*(2*C4+C3+C6)+W10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>443965</v>
+        <f>((W10-1)*(C3+C4+3*C6))*((W10*(W10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>4791501006</v>
       </c>
       <c r="X11" s="1">
-        <f>X10^2*(2*C4+C3+C6)+X10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>484845</v>
+        <f>((X10-1)*(C3+C4+3*C6))*((X10*(X10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>5475046506</v>
       </c>
       <c r="Y11" s="1">
-        <f>Y10^2*(2*C4+C3+C6)+Y10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>527525</v>
+        <f>((Y10-1)*(C3+C4+3*C6))*((Y10*(Y10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>6220692006</v>
       </c>
       <c r="Z11" s="1">
-        <f>Z10^2*(2*C4+C3+C6)+Z10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>572005</v>
+        <f>((Z10-1)*(C3+C4+3*C6))*((Z10*(Z10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>7031137506</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="1" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" s="5">
-        <f>B10^2*(2*G3+2*G4+2*G5+G7)+B10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>1305</v>
+        <f>(((B10*(B10+1)/2)*(2*C3+C4+3*C6+2*C7))*((B10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>643506</v>
       </c>
       <c r="C12" s="4">
-        <f>C10^2*(2*G3+2*G4+2*G5+G7)+C10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>4605</v>
+        <f>(((C10*(C10+1)/2)*(2*C3+C4+3*C6+2*C7))*((C10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>5187006</v>
       </c>
       <c r="D12" s="1">
-        <f>D10^2*(2*G3+2*G4+2*G5+G7)+D10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>9905</v>
+        <f>(((D10*(D10+1)/2)*(2*C3+C4+3*C6+2*C7))*((D10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>17530506</v>
       </c>
       <c r="E12" s="1">
-        <f>E10^2*(2*G3+2*G4+2*G5+G7)+E10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>17205</v>
+        <f>(((E10*(E10+1)/2)*(2*C3+C4+3*C6+2*C7))*((E10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>41574006</v>
       </c>
       <c r="F12" s="1">
-        <f>F10^2*(2*G3+2*G4+2*G5+G7)+F10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>26505</v>
+        <f>(((F10*(F10+1)/2)*(2*C3+C4+3*C6+2*C7))*((F10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>81217506</v>
       </c>
       <c r="G12" s="4">
-        <f>G10^2*(2*G3+2*G4+2*G5+G7)+G10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>37805</v>
+        <f>(((G10*(G10+1)/2)*(2*C3+C4+3*C6+2*C7))*((G10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>140361006</v>
       </c>
       <c r="H12" s="1">
-        <f>H10^2*(2*G3+2*G4+2*G5+G7)+H10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>51105</v>
+        <f>(((H10*(H10+1)/2)*(2*C3+C4+3*C6+2*C7))*((H10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>222904506</v>
       </c>
       <c r="I12" s="1">
-        <f>I10^2*(2*G3+2*G4+2*G5+G7)+I10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>66405</v>
+        <f>(((I10*(I10+1)/2)*(2*C3+C4+3*C6+2*C7))*((I10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>332748006</v>
       </c>
       <c r="J12" s="1">
-        <f>J10^2*(2*G3+2*G4+2*G5+G7)+J10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>83705</v>
+        <f>(((J10*(J10+1)/2)*(2*C3+C4+3*C6+2*C7))*((J10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>473791506</v>
       </c>
       <c r="K12" s="1">
-        <f>K10^2*(2*G3+2*G4+2*G5+G7)+K10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>103005</v>
+        <f>(((K10*(K10+1)/2)*(2*C3+C4+3*C6+2*C7))*((K10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>649935006</v>
       </c>
       <c r="L12" s="1">
-        <f>L10^2*(2*G3+2*G4+2*G5+G7)+L10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>124305</v>
+        <f>(((L10*(L10+1)/2)*(2*C3+C4+3*C6+2*C7))*((L10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>865078506</v>
       </c>
       <c r="M12" s="1">
-        <f>M10^2*(2*G3+2*G4+2*G5+G7)+M10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>147605</v>
+        <f>(((M10*(M10+1)/2)*(2*C3+C4+3*C6+2*C7))*((M10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1123122006</v>
       </c>
       <c r="N12" s="1">
-        <f>N10^2*(2*G3+2*G4+2*G5+G7)+N10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>172905</v>
+        <f>(((N10*(N10+1)/2)*(2*C3+C4+3*C6+2*C7))*((N10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1427965506</v>
       </c>
       <c r="O12" s="1">
-        <f>O10^2*(2*G3+2*G4+2*G5+G7)+O10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>200205</v>
+        <f>(((O10*(O10+1)/2)*(2*C3+C4+3*C6+2*C7))*((O10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1783509006</v>
       </c>
       <c r="P12" s="1">
-        <f>P10^2*(2*G3+2*G4+2*G5+G7)+P10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>229505</v>
+        <f>(((P10*(P10+1)/2)*(2*C3+C4+3*C6+2*C7))*((P10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>2193652506</v>
       </c>
       <c r="Q12" s="1">
-        <f>Q10^2*(2*G3+2*G4+2*G5+G7)+Q10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>260805</v>
+        <f>(((Q10*(Q10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Q10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>2662296006</v>
       </c>
       <c r="R12" s="1">
-        <f>R10^2*(2*G3+2*G4+2*G5+G7)+R10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>294105</v>
+        <f>(((R10*(R10+1)/2)*(2*C3+C4+3*C6+2*C7))*((R10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>3193339506</v>
       </c>
       <c r="S12" s="1">
-        <f>S10^2*(2*G3+2*G4+2*G5+G7)+S10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>329405</v>
+        <f>(((S10*(S10+1)/2)*(2*C3+C4+3*C6+2*C7))*((S10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>3790683006</v>
       </c>
       <c r="T12" s="1">
-        <f>T10^2*(2*G3+2*G4+2*G5+G7)+T10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>366705</v>
+        <f>(((T10*(T10+1)/2)*(2*C3+C4+3*C6+2*C7))*((T10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>4458226506</v>
       </c>
       <c r="U12" s="1">
-        <f>U10^2*(2*G3+2*G4+2*G5+G7)+U10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>406005</v>
+        <f>(((U10*(U10+1)/2)*(2*C3+C4+3*C6+2*C7))*((U10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>5199870006</v>
       </c>
       <c r="V12" s="1">
-        <f>V10^2*(2*G3+2*G4+2*G5+G7)+V10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>447305</v>
+        <f>(((V10*(V10+1)/2)*(2*C3+C4+3*C6+2*C7))*((V10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>6019513506</v>
       </c>
       <c r="W12" s="1">
-        <f>W10^2*(2*G3+2*G4+2*G5+G7)+W10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>490605</v>
+        <f>(((W10*(W10+1)/2)*(2*C3+C4+3*C6+2*C7))*((W10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>6921057006</v>
       </c>
       <c r="X12" s="1">
-        <f>X10^2*(2*G3+2*G4+2*G5+G7)+X10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>535905</v>
+        <f>(((X10*(X10+1)/2)*(2*C3+C4+3*C6+2*C7))*((X10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>7908400506</v>
       </c>
       <c r="Y12" s="1">
-        <f>Y10^2*(2*G3+2*G4+2*G5+G7)+Y10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>583205</v>
+        <f>(((Y10*(Y10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Y10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>8985444006</v>
       </c>
       <c r="Z12" s="1">
-        <f>Z10^2*(2*G3+2*G4+2*G5+G7)+Z10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>632505</v>
+        <f>(((Z10*(Z10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Z10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>10156087506</v>
       </c>
     </row>
   </sheetData>
@@ -3346,13 +3367,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:Z12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.5" customWidth="1"/>
+    <col min="22" max="22" width="12.83203125" customWidth="1"/>
+    <col min="23" max="24" width="13.33203125" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1"/>
@@ -3368,9 +3409,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
@@ -3384,109 +3423,79 @@
       <c r="C3" s="4">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>15</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>20</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4">
-        <v>25</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <v>30</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1"/>
@@ -3496,9 +3505,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1">
+    <row r="10" spans="1:26">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B10" s="5">
         <v>100</v>
@@ -3576,226 +3585,218 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1">
+    <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <f>((B10-1)*(C3+C4+3*C6))*((B10*(B10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>18998100035</v>
+      </c>
+      <c r="C11" s="4">
+        <f>((C10-1)*(C3+C4+3*C6))*((C10*(C10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>151996200035</v>
+      </c>
+      <c r="D11" s="1">
+        <f>((D10-1)*(C3+C4+3*C6))*((D10*(D10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>512994300035</v>
+      </c>
+      <c r="E11" s="1">
+        <f>((E10-1)*(C3+C4+3*C6))*((E10*(E10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1215992400035</v>
+      </c>
+      <c r="F11" s="1">
+        <f>((F10-1)*(C3+C4+3*C6))*((F10*(F10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2374990500035</v>
+      </c>
+      <c r="G11" s="4">
+        <f>((G10-1)*(C3+C4+3*C6))*((G10*(G10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>4103988600035</v>
+      </c>
+      <c r="H11" s="1">
+        <f>((H10-1)*(C3+C4+3*C6))*((H10*(H10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>6516986700035</v>
+      </c>
+      <c r="I11" s="1">
+        <f>((I10-1)*(C3+C4+3*C6))*((I10*(I10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>9727984800035</v>
+      </c>
+      <c r="J11" s="1">
+        <f>((J10-1)*(C3+C4+3*C6))*((J10*(J10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>13850982900035</v>
+      </c>
+      <c r="K11" s="1">
+        <f>((K10-1)*(C3+C4+3*C6))*((K10*(K10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>18999981000035</v>
+      </c>
+      <c r="L11" s="1">
+        <f>((L10-1)*(C3+C4+3*C6))*((L10*(L10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>25288979100035</v>
+      </c>
+      <c r="M11" s="1">
+        <f>((M10-1)*(C3+C4+3*C6))*((M10)*(M10+1)/2*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>32831977200035</v>
+      </c>
+      <c r="N11" s="1">
+        <f>((N10-1)*(C3+C4+3*C6))*((N10*(N10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>41742975300035</v>
+      </c>
+      <c r="O11" s="1">
+        <f>((O10-1)*(C3+C4+3*C6))*((O10*(O10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>52135973400035</v>
+      </c>
+      <c r="P11" s="1">
+        <f>((P10-1)*(C3+C4+3*C6))*((P10*(P10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>64124971500035</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>((Q10-1)*(C3+C4+3*C6))*((Q10*(Q10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>77823969600035</v>
+      </c>
+      <c r="R11" s="1">
+        <f>((R10-1)*(C3+C4+3*C6))*((R10*(R10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>93346967700035</v>
+      </c>
+      <c r="S11" s="1">
+        <f>((S10-1)*(C3+C4+3*C6))*((S10*(S10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>110807965800035</v>
+      </c>
+      <c r="T11" s="1">
+        <f>((T10-1)*(C3+C4+3*C6))*((T10*(T10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>130320963900035</v>
+      </c>
+      <c r="U11" s="1">
+        <f>((U10-1)*(C3+C4+3*C6))*((U10*(U10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>151999962000035</v>
+      </c>
+      <c r="V11" s="1">
+        <f>((V10-1)*(C3+C4+3*C6))*((V10*(V10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>175958960100035</v>
+      </c>
+      <c r="W11" s="1">
+        <f>((W10-1)*(C3+C4+3*C6))*((W10*(W10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>202311958200035</v>
+      </c>
+      <c r="X11" s="1">
+        <f>((X10-1)*(C3+C4+3*C6))*((X10*(X10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>231172956300035</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>((Y10-1)*(C3+C4+3*C6))*((Y10*(Y10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>262655954400035</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>((Z10-1)*(C3+C4+3*C6))*((Z10*(Z10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>296874952500035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
-        <f>B10^2*(2*C4+C3+C6)+B10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>675030</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C10^2*(2*C4+C3+C6)+C10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>2650030</v>
-      </c>
-      <c r="D11" s="1">
-        <f>D10^2*(2*C4+C3+C6)+D10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>5925030</v>
-      </c>
-      <c r="E11" s="1">
-        <f>E10^2*(2*C4+C3+C6)+E10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>10500030</v>
-      </c>
-      <c r="F11" s="1">
-        <f>F10^2*(2*C4+C3+C6)+F10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>16375030</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G10^2*(2*C4+C3+C6)+G10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>23550030</v>
-      </c>
-      <c r="H11" s="1">
-        <f>H10^2*(2*C4+C3+C6)+H10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>32025030</v>
-      </c>
-      <c r="I11" s="1">
-        <f>I10^2*(2*C4+C3+C6)+I10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>41800030</v>
-      </c>
-      <c r="J11" s="1">
-        <f>J10^2*(2*C4+C3+C6)+J10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>52875030</v>
-      </c>
-      <c r="K11" s="1">
-        <f>K10^2*(2*C4+C3+C6)+K10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>65250030</v>
-      </c>
-      <c r="L11" s="1">
-        <f>L10^2*(2*C4+C3+C6)+L10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>78925030</v>
-      </c>
-      <c r="M11" s="1">
-        <f>M10^2*(2*C4+C3+C6)+M10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>93900030</v>
-      </c>
-      <c r="N11" s="1">
-        <f>N10^2*(2*C4+C3+C6)+N10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>110175030</v>
-      </c>
-      <c r="O11" s="1">
-        <f>O10^2*(2*C4+C3+C6)+O10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>127750030</v>
-      </c>
-      <c r="P11" s="1">
-        <f>P10^2*(2*C4+C3+C6)+P10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>146625030</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>Q10^2*(2*C4+C3+C6)+Q10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>166800030</v>
-      </c>
-      <c r="R11" s="1">
-        <f>R10^2*(2*C4+C3+C6)+R10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>188275030</v>
-      </c>
-      <c r="S11" s="1">
-        <f>S10^2*(2*C4+C3+C6)+S10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>211050030</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T10^2*(2*C4+C3+C6)+T10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>235125030</v>
-      </c>
-      <c r="U11" s="1">
-        <f>U10^2*(2*C4+C3+C6)+U10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>260500030</v>
-      </c>
-      <c r="V11" s="1">
-        <f>V10^2*(2*C4+C3+C6)+V10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>287175030</v>
-      </c>
-      <c r="W11" s="1">
-        <f>W10^2*(2*C4+C3+C6)+W10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>315150030</v>
-      </c>
-      <c r="X11" s="1">
-        <f>X10^2*(2*C4+C3+C6)+X10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>344425030</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>Y10^2*(2*C4+C3+C6)+Y10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>375000030</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>Z10^2*(2*C4+C3+C6)+Z10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>406875030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="B12" s="5">
-        <f>B10^2*(2*G3+2*G4+2*G5+G7)+B10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>870530</v>
+        <f>(((B10*(B10+1)/2)*(2*C3+C4+3*C6+2*C7))*((B10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>26772322535</v>
       </c>
       <c r="C12" s="4">
-        <f>C10^2*(2*G3+2*G4+2*G5+G7)+C10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>3441030</v>
+        <f>(((C10*(C10+1)/2)*(2*C3+C4+3*C6+2*C7))*((C10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>214194645035</v>
       </c>
       <c r="D12" s="1">
-        <f>D10^2*(2*G3+2*G4+2*G5+G7)+D10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>7711530</v>
+        <f>(((D10*(D10+1)/2)*(2*C3+C4+3*C6+2*C7))*((D10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>722916967535</v>
       </c>
       <c r="E12" s="1">
-        <f>E10^2*(2*G3+2*G4+2*G5+G7)+E10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>13682030</v>
+        <f>(((E10*(E10+1)/2)*(2*C3+C4+3*C6+2*C7))*((E10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1713589290035</v>
       </c>
       <c r="F12" s="1">
-        <f>F10^2*(2*G3+2*G4+2*G5+G7)+F10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>21352530</v>
+        <f>(((F10*(F10+1)/2)*(2*C3+C4+3*C6+2*C7))*((F10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>3346861612535</v>
       </c>
       <c r="G12" s="4">
-        <f>G10^2*(2*G3+2*G4+2*G5+G7)+G10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>30723030</v>
+        <f>(((G10*(G10+1)/2)*(2*C3+C4+3*C6+2*C7))*((G10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>5783383935035</v>
       </c>
       <c r="H12" s="1">
-        <f>H10^2*(2*G3+2*G4+2*G5+G7)+H10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>41793530</v>
+        <f>(((H10*(H10+1)/2)*(2*C3+C4+3*C6+2*C7))*((H10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>9183806257535</v>
       </c>
       <c r="I12" s="1">
-        <f>I10^2*(2*G3+2*G4+2*G5+G7)+I10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>54564030</v>
+        <f>(((I10*(I10+1)/2)*(2*C3+C4+3*C6+2*C7))*((I10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>13708778580035</v>
       </c>
       <c r="J12" s="1">
-        <f>J10^2*(2*G3+2*G4+2*G5+G7)+J10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>69034530</v>
+        <f>(((J10*(J10+1)/2)*(2*C3+C4+3*C6+2*C7))*((J10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>19518950902535</v>
       </c>
       <c r="K12" s="1">
-        <f>K10^2*(2*G3+2*G4+2*G5+G7)+K10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>85205030</v>
+        <f>(((K10*(K10+1)/2)*(2*C3+C4+3*C6+2*C7))*((K10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>26774973225035</v>
       </c>
       <c r="L12" s="1">
-        <f>L10^2*(2*G3+2*G4+2*G5+G7)+L10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>103075530</v>
+        <f>(((L10*(L10+1)/2)*(2*C3+C4+3*C6+2*C7))*((L10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>35637495547535</v>
       </c>
       <c r="M12" s="1">
-        <f>M10^2*(2*G3+2*G4+2*G5+G7)+M10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>122646030</v>
+        <f>(((M10*(M10+1)/2)*(2*C3+C4+3*C6+2*C7))*((M10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>46267167870035</v>
       </c>
       <c r="N12" s="1">
-        <f>N10^2*(2*G3+2*G4+2*G5+G7)+N10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>143916530</v>
+        <f>(((N10*(N10+1)/2)*(2*C3+C4+3*C6+2*C7))*((N10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>58824640192535</v>
       </c>
       <c r="O12" s="1">
-        <f>O10^2*(2*G3+2*G4+2*G5+G7)+O10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>166887030</v>
+        <f>(((O10*(O10+1)/2)*(2*C3+C4+3*C6+2*C7))*((O10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>73470562515035</v>
       </c>
       <c r="P12" s="1">
-        <f>P10^2*(2*G3+2*G4+2*G5+G7)+P10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>191557530</v>
+        <f>(((P10*(P10+1)/2)*(2*C3+C4+3*C6+2*C7))*((P10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>90365584837535</v>
       </c>
       <c r="Q12" s="1">
-        <f>Q10^2*(2*G3+2*G4+2*G5+G7)+Q10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>217928030</v>
+        <f>(((Q10*(Q10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Q10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>109670357160035</v>
       </c>
       <c r="R12" s="1">
-        <f>R10^2*(2*G3+2*G4+2*G5+G7)+R10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>245998530</v>
+        <f>(((R10*(R10+1)/2)*(2*C3+C4+3*C6+2*C7))*((R10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>131545529482535</v>
       </c>
       <c r="S12" s="1">
-        <f>S10^2*(2*G3+2*G4+2*G5+G7)+S10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>275769030</v>
+        <f>(((S10*(S10+1)/2)*(2*C3+C4+3*C6+2*C7))*((S10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>156151751805035</v>
       </c>
       <c r="T12" s="1">
-        <f>T10^2*(2*G3+2*G4+2*G5+G7)+T10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>307239530</v>
+        <f>(((T10*(T10+1)/2)*(2*C3+C4+3*C6+2*C7))*((T10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>183649674127535</v>
       </c>
       <c r="U12" s="1">
-        <f>U10^2*(2*G3+2*G4+2*G5+G7)+U10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>340410030</v>
+        <f>(((U10*(U10+1)/2)*(2*C3+C4+3*C6+2*C7))*((U10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>214199946450035</v>
       </c>
       <c r="V12" s="1">
-        <f>V10^2*(2*G3+2*G4+2*G5+G7)+V10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>375280530</v>
+        <f>(((V10*(V10+1)/2)*(2*C3+C4+3*C6+2*C7))*((V10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>247963218772535</v>
       </c>
       <c r="W12" s="1">
-        <f>W10^2*(2*G3+2*G4+2*G5+G7)+W10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>411851030</v>
+        <f>(((W10*(W10+1)/2)*(2*C3+C4+3*C6+2*C7))*((W10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>285100141095035</v>
       </c>
       <c r="X12" s="1">
-        <f>X10^2*(2*G3+2*G4+2*G5+G7)+X10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>450121530</v>
+        <f>(((X10*(X10+1)/2)*(2*C3+C4+3*C6+2*C7))*((X10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>325771363417535</v>
       </c>
       <c r="Y12" s="1">
-        <f>Y10^2*(2*G3+2*G4+2*G5+G7)+Y10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>490092030</v>
+        <f>(((Y10*(Y10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Y10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>370137535740035</v>
       </c>
       <c r="Z12" s="1">
-        <f>Z10^2*(2*G3+2*G4+2*G5+G7)+Z10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>531762530</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+        <f>(((Z10*(Z10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Z10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>418359308062535</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3807,13 +3808,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="1"/>
@@ -3829,9 +3833,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
@@ -3843,111 +3845,81 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>45</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>35</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
-        <v>55</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>50</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>60</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>55</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
-        <v>65</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <v>65</v>
-      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1"/>
@@ -3957,306 +3929,298 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1">
+    <row r="10" spans="1:26">
       <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10">
+        <v>20</v>
+      </c>
+      <c r="D10" s="10">
+        <v>30</v>
+      </c>
+      <c r="E10" s="10">
+        <v>40</v>
+      </c>
+      <c r="F10" s="10">
         <v>50</v>
       </c>
-      <c r="C10" s="4">
+      <c r="G10" s="10">
+        <v>60</v>
+      </c>
+      <c r="H10" s="10">
+        <v>70</v>
+      </c>
+      <c r="I10" s="10">
+        <v>80</v>
+      </c>
+      <c r="J10" s="10">
+        <v>90</v>
+      </c>
+      <c r="K10" s="10">
         <v>100</v>
       </c>
-      <c r="D10" s="4">
+      <c r="L10" s="10">
+        <v>110</v>
+      </c>
+      <c r="M10" s="10">
+        <v>120</v>
+      </c>
+      <c r="N10" s="10">
+        <v>130</v>
+      </c>
+      <c r="O10" s="10">
+        <v>140</v>
+      </c>
+      <c r="P10" s="10">
         <v>150</v>
       </c>
-      <c r="E10" s="4">
+      <c r="Q10" s="10">
+        <v>160</v>
+      </c>
+      <c r="R10" s="10">
+        <v>170</v>
+      </c>
+      <c r="S10" s="10">
+        <v>180</v>
+      </c>
+      <c r="T10" s="10">
+        <v>190</v>
+      </c>
+      <c r="U10" s="10">
         <v>200</v>
       </c>
-      <c r="F10" s="4">
+      <c r="V10" s="10">
+        <v>210</v>
+      </c>
+      <c r="W10" s="10">
+        <v>220</v>
+      </c>
+      <c r="X10" s="10">
+        <v>230</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>240</v>
+      </c>
+      <c r="Z10" s="10">
         <v>250</v>
       </c>
-      <c r="G10" s="4">
-        <v>300</v>
-      </c>
-      <c r="H10" s="4">
-        <v>350</v>
-      </c>
-      <c r="I10" s="4">
-        <v>400</v>
-      </c>
-      <c r="J10" s="4">
-        <v>450</v>
-      </c>
-      <c r="K10" s="4">
-        <v>500</v>
-      </c>
-      <c r="L10" s="4">
-        <v>550</v>
-      </c>
-      <c r="M10" s="4">
-        <v>600</v>
-      </c>
-      <c r="N10" s="4">
-        <v>650</v>
-      </c>
-      <c r="O10" s="4">
-        <v>700</v>
-      </c>
-      <c r="P10" s="4">
-        <v>750</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>800</v>
-      </c>
-      <c r="R10" s="4">
-        <v>850</v>
-      </c>
-      <c r="S10" s="4">
-        <v>900</v>
-      </c>
-      <c r="T10" s="4">
-        <v>950</v>
-      </c>
-      <c r="U10" s="4">
-        <v>1000</v>
-      </c>
-      <c r="V10" s="4">
-        <v>1050</v>
-      </c>
-      <c r="W10" s="4">
-        <v>1100</v>
-      </c>
-      <c r="X10" s="4">
-        <v>1150</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>1200</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="1" customFormat="1">
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <f>((B10-1)*(C3+C4+3*C6))*((B10*(B10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>7078516</v>
+      </c>
+      <c r="C11" s="4">
+        <f>((C10-1)*(C3+C4+3*C6))*((C10*(C10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>57057016</v>
+      </c>
+      <c r="D11" s="1">
+        <f>((D10-1)*(C3+C4+3*C6))*((D10*(D10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>192835516</v>
+      </c>
+      <c r="E11" s="1">
+        <f>((E10-1)*(C3+C4+3*C6))*((E10*(E10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>457314016</v>
+      </c>
+      <c r="F11" s="1">
+        <f>((F10-1)*(C3+C4+3*C6))*((F10*(F10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>893392516</v>
+      </c>
+      <c r="G11" s="4">
+        <f>((G10-1)*(C3+C4+3*C6))*((G10*(G10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1543971016</v>
+      </c>
+      <c r="H11" s="1">
+        <f>((H10-1)*(C3+C4+3*C6))*((H10*(H10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2451949516</v>
+      </c>
+      <c r="I11" s="1">
+        <f>((I10-1)*(C3+C4+3*C6))*((I10*(I10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3660228016</v>
+      </c>
+      <c r="J11" s="1">
+        <f>((J10-1)*(C3+C4+3*C6))*((J10*(J10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>5211706516</v>
+      </c>
+      <c r="K11" s="1">
+        <f>((K10-1)*(C3+C4+3*C6))*((K10*(K10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>7149285016</v>
+      </c>
+      <c r="L11" s="1">
+        <f>((L10-1)*(C3+C4+3*C6))*((L10*(L10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>9515863516</v>
+      </c>
+      <c r="M11" s="1">
+        <f>((M10-1)*(C3+C4+3*C6))*((M10)*(M10+1)/2*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>12354342016</v>
+      </c>
+      <c r="N11" s="1">
+        <f>((N10-1)*(C3+C4+3*C6))*((N10*(N10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>15707620516</v>
+      </c>
+      <c r="O11" s="1">
+        <f>((O10-1)*(C3+C4+3*C6))*((O10*(O10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>19618599016</v>
+      </c>
+      <c r="P11" s="1">
+        <f>((P10-1)*(C3+C4+3*C6))*((P10*(P10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>24130177516</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>((Q10-1)*(C3+C4+3*C6))*((Q10*(Q10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>29285256016</v>
+      </c>
+      <c r="R11" s="1">
+        <f>((R10-1)*(C3+C4+3*C6))*((R10*(R10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>35126734516</v>
+      </c>
+      <c r="S11" s="1">
+        <f>((S10-1)*(C3+C4+3*C6))*((S10*(S10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>41697513016</v>
+      </c>
+      <c r="T11" s="1">
+        <f>((T10-1)*(C3+C4+3*C6))*((T10*(T10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>49040491516</v>
+      </c>
+      <c r="U11" s="1">
+        <f>((U10-1)*(C3+C4+3*C6))*((U10*(U10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>57198570016</v>
+      </c>
+      <c r="V11" s="1">
+        <f>((V10-1)*(C3+C4+3*C6))*((V10*(V10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>66214648516</v>
+      </c>
+      <c r="W11" s="1">
+        <f>((W10-1)*(C3+C4+3*C6))*((W10*(W10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>76131627016</v>
+      </c>
+      <c r="X11" s="1">
+        <f>((X10-1)*(C3+C4+3*C6))*((X10*(X10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>86992405516</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>((Y10-1)*(C3+C4+3*C6))*((Y10*(Y10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>98839884016</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>((Z10-1)*(C3+C4+3*C6))*((Z10*(Z10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>111716962516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
-        <f>B10^2*(2*C4+C3+C6)+B10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>546065</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C10^2*(2*C4+C3+C6)+C10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>2117065</v>
-      </c>
-      <c r="D11" s="1">
-        <f>D10^2*(2*C4+C3+C6)+D10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>4713065</v>
-      </c>
-      <c r="E11" s="1">
-        <f>E10^2*(2*C4+C3+C6)+E10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>8334065</v>
-      </c>
-      <c r="F11" s="1">
-        <f>F10^2*(2*C4+C3+C6)+F10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>12980065</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G10^2*(2*C4+C3+C6)+G10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>18651065</v>
-      </c>
-      <c r="H11" s="1">
-        <f>H10^2*(2*C4+C3+C6)+H10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>25347065</v>
-      </c>
-      <c r="I11" s="1">
-        <f>I10^2*(2*C4+C3+C6)+I10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>33068065</v>
-      </c>
-      <c r="J11" s="1">
-        <f>J10^2*(2*C4+C3+C6)+J10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>41814065</v>
-      </c>
-      <c r="K11" s="1">
-        <f>K10^2*(2*C4+C3+C6)+K10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>51585065</v>
-      </c>
-      <c r="L11" s="1">
-        <f>L10^2*(2*C4+C3+C6)+L10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>62381065</v>
-      </c>
-      <c r="M11" s="1">
-        <f>M10^2*(2*C4+C3+C6)+M10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>74202065</v>
-      </c>
-      <c r="N11" s="1">
-        <f>N10^2*(2*C4+C3+C6)+N10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>87048065</v>
-      </c>
-      <c r="O11" s="1">
-        <f>O10^2*(2*C4+C3+C6)+O10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>100919065</v>
-      </c>
-      <c r="P11" s="1">
-        <f>P10^2*(2*C4+C3+C6)+P10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>115815065</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>Q10^2*(2*C4+C3+C6)+Q10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>131736065</v>
-      </c>
-      <c r="R11" s="1">
-        <f>R10^2*(2*C4+C3+C6)+R10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>148682065</v>
-      </c>
-      <c r="S11" s="1">
-        <f>S10^2*(2*C4+C3+C6)+S10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>166653065</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T10^2*(2*C4+C3+C6)+T10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>185649065</v>
-      </c>
-      <c r="U11" s="1">
-        <f>U10^2*(2*C4+C3+C6)+U10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>205670065</v>
-      </c>
-      <c r="V11" s="1">
-        <f>V10^2*(2*C4+C3+C6)+V10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>226716065</v>
-      </c>
-      <c r="W11" s="1">
-        <f>W10^2*(2*C4+C3+C6)+W10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>248787065</v>
-      </c>
-      <c r="X11" s="1">
-        <f>X10^2*(2*C4+C3+C6)+X10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>271883065</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>Y10^2*(2*C4+C3+C6)+Y10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>296004065</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>Z10^2*(2*C4+C3+C6)+Z10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>321150065</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="B12" s="5">
-        <f>B10^2*(2*G3+2*G4+2*G5+G7)+B10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>829565</v>
+        <f>(((B10*(B10+1)/2)*(2*C3+C4+3*C6+2*C7))*((B10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>9444616</v>
       </c>
       <c r="C12" s="4">
-        <f>C10^2*(2*G3+2*G4+2*G5+G7)+C10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>3259065</v>
+        <f>(((C10*(C10+1)/2)*(2*C3+C4+3*C6+2*C7))*((C10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>76129216</v>
       </c>
       <c r="D12" s="1">
-        <f>D10^2*(2*G3+2*G4+2*G5+G7)+D10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>7288565</v>
+        <f>(((D10*(D10+1)/2)*(2*C3+C4+3*C6+2*C7))*((D10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>257293816</v>
       </c>
       <c r="E12" s="1">
-        <f>E10^2*(2*G3+2*G4+2*G5+G7)+E10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>12918065</v>
+        <f>(((E10*(E10+1)/2)*(2*C3+C4+3*C6+2*C7))*((E10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>610178416</v>
       </c>
       <c r="F12" s="1">
-        <f>F10^2*(2*G3+2*G4+2*G5+G7)+F10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>20147565</v>
+        <f>(((F10*(F10+1)/2)*(2*C3+C4+3*C6+2*C7))*((F10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1192023016</v>
       </c>
       <c r="G12" s="4">
-        <f>G10^2*(2*G3+2*G4+2*G5+G7)+G10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>28977065</v>
+        <f>(((G10*(G10+1)/2)*(2*C3+C4+3*C6+2*C7))*((G10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>2060067616</v>
       </c>
       <c r="H12" s="1">
-        <f>H10^2*(2*G3+2*G4+2*G5+G7)+H10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>39406565</v>
+        <f>(((H10*(H10+1)/2)*(2*C3+C4+3*C6+2*C7))*((H10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>3271552216</v>
       </c>
       <c r="I12" s="1">
-        <f>I10^2*(2*G3+2*G4+2*G5+G7)+I10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>51436065</v>
+        <f>(((I10*(I10+1)/2)*(2*C3+C4+3*C6+2*C7))*((I10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>4883716816</v>
       </c>
       <c r="J12" s="1">
-        <f>J10^2*(2*G3+2*G4+2*G5+G7)+J10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>65065565</v>
+        <f>(((J10*(J10+1)/2)*(2*C3+C4+3*C6+2*C7))*((J10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>6953801416</v>
       </c>
       <c r="K12" s="1">
-        <f>K10^2*(2*G3+2*G4+2*G5+G7)+K10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>80295065</v>
+        <f>(((K10*(K10+1)/2)*(2*C3+C4+3*C6+2*C7))*((K10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>9539046016</v>
       </c>
       <c r="L12" s="1">
-        <f>L10^2*(2*G3+2*G4+2*G5+G7)+L10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>97124565</v>
+        <f>(((L10*(L10+1)/2)*(2*C3+C4+3*C6+2*C7))*((L10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>12696690616</v>
       </c>
       <c r="M12" s="1">
-        <f>M10^2*(2*G3+2*G4+2*G5+G7)+M10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>115554065</v>
+        <f>(((M10*(M10+1)/2)*(2*C3+C4+3*C6+2*C7))*((M10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>16483975216</v>
       </c>
       <c r="N12" s="1">
-        <f>N10^2*(2*G3+2*G4+2*G5+G7)+N10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>135583565</v>
+        <f>(((N10*(N10+1)/2)*(2*C3+C4+3*C6+2*C7))*((N10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>20958139816</v>
       </c>
       <c r="O12" s="1">
-        <f>O10^2*(2*G3+2*G4+2*G5+G7)+O10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>157213065</v>
+        <f>(((O10*(O10+1)/2)*(2*C3+C4+3*C6+2*C7))*((O10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>26176424416</v>
       </c>
       <c r="P12" s="1">
-        <f>P10^2*(2*G3+2*G4+2*G5+G7)+P10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>180442565</v>
+        <f>(((P10*(P10+1)/2)*(2*C3+C4+3*C6+2*C7))*((P10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>32196069016</v>
       </c>
       <c r="Q12" s="1">
-        <f>Q10^2*(2*G3+2*G4+2*G5+G7)+Q10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>205272065</v>
+        <f>(((Q10*(Q10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Q10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>39074313616</v>
       </c>
       <c r="R12" s="1">
-        <f>R10^2*(2*G3+2*G4+2*G5+G7)+R10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>231701565</v>
+        <f>(((R10*(R10+1)/2)*(2*C3+C4+3*C6+2*C7))*((R10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>46868398216</v>
       </c>
       <c r="S12" s="1">
-        <f>S10^2*(2*G3+2*G4+2*G5+G7)+S10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>259731065</v>
+        <f>(((S10*(S10+1)/2)*(2*C3+C4+3*C6+2*C7))*((S10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>55635562816</v>
       </c>
       <c r="T12" s="1">
-        <f>T10^2*(2*G3+2*G4+2*G5+G7)+T10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>289360565</v>
+        <f>(((T10*(T10+1)/2)*(2*C3+C4+3*C6+2*C7))*((T10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>65433047416</v>
       </c>
       <c r="U12" s="1">
-        <f>U10^2*(2*G3+2*G4+2*G5+G7)+U10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>320590065</v>
+        <f>(((U10*(U10+1)/2)*(2*C3+C4+3*C6+2*C7))*((U10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>76318092016</v>
       </c>
       <c r="V12" s="1">
-        <f>V10^2*(2*G3+2*G4+2*G5+G7)+V10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>353419565</v>
+        <f>(((V10*(V10+1)/2)*(2*C3+C4+3*C6+2*C7))*((V10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>88347936616</v>
       </c>
       <c r="W12" s="1">
-        <f>W10^2*(2*G3+2*G4+2*G5+G7)+W10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>387849065</v>
+        <f>(((W10*(W10+1)/2)*(2*C3+C4+3*C6+2*C7))*((W10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>101579821216</v>
       </c>
       <c r="X12" s="1">
-        <f>X10^2*(2*G3+2*G4+2*G5+G7)+X10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>423878565</v>
+        <f>(((X10*(X10+1)/2)*(2*C3+C4+3*C6+2*C7))*((X10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>116070985816</v>
       </c>
       <c r="Y12" s="1">
-        <f>Y10^2*(2*G3+2*G4+2*G5+G7)+Y10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>461508065</v>
+        <f>(((Y10*(Y10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Y10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>131878670416</v>
       </c>
       <c r="Z12" s="1">
-        <f>Z10^2*(2*G3+2*G4+2*G5+G7)+Z10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>500737565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+        <f>(((Z10*(Z10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Z10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>149060115016</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4268,481 +4232,600 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:Z12"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="13.5" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" customWidth="1"/>
-    <col min="20" max="20" width="15.33203125" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="13.5" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" customWidth="1"/>
-    <col min="25" max="25" width="14.5" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="4"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" spans="1:26" ht="28">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="10">
+        <v>200</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10">
+        <v>300</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10">
+        <v>400</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10">
+        <v>500</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:26" ht="28">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4">
-        <v>300</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="C8" s="10">
+        <v>600</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="10">
+        <v>4000</v>
+      </c>
+      <c r="F10" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H10" s="10">
+        <v>7000</v>
+      </c>
+      <c r="I10" s="10">
+        <v>8000</v>
+      </c>
+      <c r="J10" s="10">
+        <v>9000</v>
+      </c>
+      <c r="K10" s="10">
+        <v>10000</v>
+      </c>
+      <c r="L10" s="10">
+        <v>11000</v>
+      </c>
+      <c r="M10" s="10">
+        <v>12000</v>
+      </c>
+      <c r="N10" s="10">
+        <v>13000</v>
+      </c>
+      <c r="O10" s="10">
+        <v>14000</v>
+      </c>
+      <c r="P10" s="10">
+        <v>15000</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>16000</v>
+      </c>
+      <c r="R10" s="10">
+        <v>17000</v>
+      </c>
+      <c r="S10" s="10">
+        <v>18000</v>
+      </c>
+      <c r="T10" s="10">
+        <v>19000</v>
+      </c>
+      <c r="U10" s="10">
+        <v>20000</v>
+      </c>
+      <c r="V10" s="10">
+        <v>21000</v>
+      </c>
+      <c r="W10" s="10">
+        <v>22000</v>
+      </c>
+      <c r="X10" s="10">
+        <v>23000</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>24000</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
-        <v>400</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4">
-        <v>500</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" s="1" customFormat="1">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="4">
-        <v>3000</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4000</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>6000</v>
-      </c>
-      <c r="H10" s="4">
-        <v>7000</v>
-      </c>
-      <c r="I10" s="4">
-        <v>8000</v>
-      </c>
-      <c r="J10" s="4">
-        <v>9000</v>
-      </c>
-      <c r="K10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="4">
-        <v>11000</v>
-      </c>
-      <c r="M10" s="4">
-        <v>12000</v>
-      </c>
-      <c r="N10" s="4">
-        <v>13000</v>
-      </c>
-      <c r="O10" s="4">
-        <v>14000</v>
-      </c>
-      <c r="P10" s="4">
-        <v>15000</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>16000</v>
-      </c>
-      <c r="R10" s="4">
-        <v>17000</v>
-      </c>
-      <c r="S10" s="4">
-        <v>18000</v>
-      </c>
-      <c r="T10" s="4">
-        <v>19000</v>
-      </c>
-      <c r="U10" s="4">
-        <v>20000</v>
-      </c>
-      <c r="V10" s="4">
-        <v>21000</v>
-      </c>
-      <c r="W10" s="4">
-        <v>22000</v>
-      </c>
-      <c r="X10" s="4">
-        <v>23000</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>24000</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="1" customFormat="1">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="5">
+        <f>((B10-1)*(C3+C4+3*C6))*((B10*(B10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>4499995500000600</v>
+      </c>
+      <c r="C11" s="4">
+        <f>((C10-1)*(C3+C4+3*C6))*((C10*(C10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3.59999910000006E+16</v>
+      </c>
+      <c r="D11" s="1">
+        <f>((D10-1)*(C3+C4+3*C6))*((D10*(D10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1.2149998650000061E+17</v>
+      </c>
+      <c r="E11" s="1">
+        <f>((E10-1)*(C3+C4+3*C6))*((E10*(E10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2.8799998200000061E+17</v>
+      </c>
+      <c r="F11" s="1">
+        <f>((F10-1)*(C3+C4+3*C6))*((F10*(F10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>5.6249997750000058E+17</v>
+      </c>
+      <c r="G11" s="4">
+        <f>((G10-1)*(C3+C4+3*C6))*((G10*(G10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>9.7199997300000064E+17</v>
+      </c>
+      <c r="H11" s="1">
+        <f>((H10-1)*(C3+C4+3*C6))*((H10*(H10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1.5434999685000005E+18</v>
+      </c>
+      <c r="I11" s="1">
+        <f>((I10-1)*(C3+C4+3*C6))*((I10*(I10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2.3039999640000005E+18</v>
+      </c>
+      <c r="J11" s="1">
+        <f>((J10-1)*(C3+C4+3*C6))*((J10*(J10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3.2804999595000008E+18</v>
+      </c>
+      <c r="K11" s="1">
+        <f>((K10-1)*(C3+C4+3*C6))*((K10*(K10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>4.4999999550000005E+18</v>
+      </c>
+      <c r="L11" s="1">
+        <f>((L10-1)*(C3+C4+3*C6))*((L10*(L10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>5.9894999505000008E+18</v>
+      </c>
+      <c r="M11" s="1">
+        <f>((M10-1)*(C3+C4+3*C6))*((M10)*(M10+1)/2*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>7.775999946000001E+18</v>
+      </c>
+      <c r="N11" s="1">
+        <f>((N10-1)*(C3+C4+3*C6))*((N10*(N10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>9.8864999415000003E+18</v>
+      </c>
+      <c r="O11" s="1">
+        <f>((O10-1)*(C3+C4+3*C6))*((O10*(O10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1.2347999936999999E+19</v>
+      </c>
+      <c r="P11" s="1">
+        <f>((P10-1)*(C3+C4+3*C6))*((P10*(P10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1.5187499932500001E+19</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>((Q10-1)*(C3+C4+3*C6))*((Q10*(Q10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1.8431999928E+19</v>
+      </c>
+      <c r="R11" s="1">
+        <f>((R10-1)*(C3+C4+3*C6))*((R10*(R10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2.2108499923499999E+19</v>
+      </c>
+      <c r="S11" s="1">
+        <f>((S10-1)*(C3+C4+3*C6))*((S10*(S10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2.6243999918999998E+19</v>
+      </c>
+      <c r="T11" s="1">
+        <f>((T10-1)*(C3+C4+3*C6))*((T10*(T10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3.0865499914500002E+19</v>
+      </c>
+      <c r="U11" s="1">
+        <f>((U10-1)*(C3+C4+3*C6))*((U10*(U10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3.5999999910000001E+19</v>
+      </c>
+      <c r="V11" s="1">
+        <f>((V10-1)*(C3+C4+3*C6))*((V10*(V10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>4.1674499905499996E+19</v>
+      </c>
+      <c r="W11" s="1">
+        <f>((W10-1)*(C3+C4+3*C6))*((W10*(W10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>4.7915999900999999E+19</v>
+      </c>
+      <c r="X11" s="1">
+        <f>((X10-1)*(C3+C4+3*C6))*((X10*(X10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>5.4751499896500003E+19</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>((Y10-1)*(C3+C4+3*C6))*((Y10*(Y10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>6.2207999891999998E+19</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>((Z10-1)*(C3+C4+3*C6))*((Z10*(Z10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>7.0312499887500001E+19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
-        <f>B10^2*(2*C4+C3+C6)+B10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>903800500</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C10^2*(2*C4+C3+C6)+C10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>3607600500</v>
-      </c>
-      <c r="D11" s="1">
-        <f>D10^2*(2*C4+C3+C6)+D10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>8111400500</v>
-      </c>
-      <c r="E11" s="1">
-        <f>E10^2*(2*C4+C3+C6)+E10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>14415200500</v>
-      </c>
-      <c r="F11" s="1">
-        <f>F10^2*(2*C4+C3+C6)+F10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>22519000500</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G10^2*(2*C4+C3+C6)+G10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>32422800500</v>
-      </c>
-      <c r="H11" s="1">
-        <f>H10^2*(2*C4+C3+C6)+H10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>44126600500</v>
-      </c>
-      <c r="I11" s="1">
-        <f>I10^2*(2*C4+C3+C6)+I10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>57630400500</v>
-      </c>
-      <c r="J11" s="1">
-        <f>J10^2*(2*C4+C3+C6)+J10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>72934200500</v>
-      </c>
-      <c r="K11" s="1">
-        <f>K10^2*(2*C4+C3+C6)+K10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>90038000500</v>
-      </c>
-      <c r="L11" s="1">
-        <f>L10^2*(2*C4+C3+C6)+L10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>108941800500</v>
-      </c>
-      <c r="M11" s="1">
-        <f>M10^2*(2*C4+C3+C6)+M10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>129645600500</v>
-      </c>
-      <c r="N11" s="1">
-        <f>N10^2*(2*C4+C3+C6)+N10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>152149400500</v>
-      </c>
-      <c r="O11" s="1">
-        <f>O10^2*(2*C4+C3+C6)+O10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>176453200500</v>
-      </c>
-      <c r="P11" s="1">
-        <f>P10^2*(2*C4+C3+C6)+P10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>202557000500</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>Q10^2*(2*C4+C3+C6)+Q10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>230460800500</v>
-      </c>
-      <c r="R11" s="1">
-        <f>R10^2*(2*C4+C3+C6)+R10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>260164600500</v>
-      </c>
-      <c r="S11" s="1">
-        <f>S10^2*(2*C4+C3+C6)+S10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>291668400500</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T10^2*(2*C4+C3+C6)+T10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>324972200500</v>
-      </c>
-      <c r="U11" s="1">
-        <f>U10^2*(2*C4+C3+C6)+U10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>360076000500</v>
-      </c>
-      <c r="V11" s="1">
-        <f>V10^2*(2*C4+C3+C6)+V10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>396979800500</v>
-      </c>
-      <c r="W11" s="1">
-        <f>W10^2*(2*C4+C3+C6)+W10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>435683600500</v>
-      </c>
-      <c r="X11" s="1">
-        <f>X10^2*(2*C4+C3+C6)+X10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>476187400500</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>Y10^2*(2*C4+C3+C6)+Y10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>518491200500</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>Z10^2*(2*C4+C3+C6)+Z10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>562595000500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="B12" s="5">
-        <f>B10^2*(2*G3+2*G4+2*G5+G7)+B10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>1103000500</v>
+        <f>(((B10*(B10+1)/2)*(2*C3+C4+3*C6+2*C7))*((B10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>6499993500000600</v>
       </c>
       <c r="C12" s="4">
-        <f>C10^2*(2*G3+2*G4+2*G5+G7)+C10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>4406000500</v>
+        <f>(((C10*(C10+1)/2)*(2*C3+C4+3*C6+2*C7))*((C10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>5.19999870000006E+16</v>
       </c>
       <c r="D12" s="1">
-        <f>D10^2*(2*G3+2*G4+2*G5+G7)+D10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>9909000500</v>
+        <f>(((D10*(D10+1)/2)*(2*C3+C4+3*C6+2*C7))*((D10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1.7549998050000061E+17</v>
       </c>
       <c r="E12" s="1">
-        <f>E10^2*(2*G3+2*G4+2*G5+G7)+E10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>17612000500</v>
+        <f>(((E10*(E10+1)/2)*(2*C3+C4+3*C6+2*C7))*((E10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>4.1599997400000058E+17</v>
       </c>
       <c r="F12" s="1">
-        <f>F10^2*(2*G3+2*G4+2*G5+G7)+F10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>27515000500</v>
+        <f>(((F10*(F10+1)/2)*(2*C3+C4+3*C6+2*C7))*((F10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>8.1249996750000064E+17</v>
       </c>
       <c r="G12" s="4">
-        <f>G10^2*(2*G3+2*G4+2*G5+G7)+G10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>39618000500</v>
+        <f>(((G10*(G10+1)/2)*(2*C3+C4+3*C6+2*C7))*((G10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1.4039999610000005E+18</v>
       </c>
       <c r="H12" s="1">
-        <f>H10^2*(2*G3+2*G4+2*G5+G7)+H10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>53921000500</v>
+        <f>(((H10*(H10+1)/2)*(2*C3+C4+3*C6+2*C7))*((H10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>2.2294999545000005E+18</v>
       </c>
       <c r="I12" s="1">
-        <f>I10^2*(2*G3+2*G4+2*G5+G7)+I10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>70424000500</v>
+        <f>(((I10*(I10+1)/2)*(2*C3+C4+3*C6+2*C7))*((I10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>3.3279999480000005E+18</v>
       </c>
       <c r="J12" s="1">
-        <f>J10^2*(2*G3+2*G4+2*G5+G7)+J10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>89127000500</v>
+        <f>(((J10*(J10+1)/2)*(2*C3+C4+3*C6+2*C7))*((J10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>4.7384999415000013E+18</v>
       </c>
       <c r="K12" s="1">
-        <f>K10^2*(2*G3+2*G4+2*G5+G7)+K10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>110030000500</v>
+        <f>(((K10*(K10+1)/2)*(2*C3+C4+3*C6+2*C7))*((K10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>6.4999999350000015E+18</v>
       </c>
       <c r="L12" s="1">
-        <f>L10^2*(2*G3+2*G4+2*G5+G7)+L10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>133133000500</v>
+        <f>(((L10*(L10+1)/2)*(2*C3+C4+3*C6+2*C7))*((L10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>8.6514999285000008E+18</v>
       </c>
       <c r="M12" s="1">
-        <f>M10^2*(2*G3+2*G4+2*G5+G7)+M10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>158436000500</v>
+        <f>(((M10*(M10+1)/2)*(2*C3+C4+3*C6+2*C7))*((M10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1.1231999921999999E+19</v>
       </c>
       <c r="N12" s="1">
-        <f>N10^2*(2*G3+2*G4+2*G5+G7)+N10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>185939000500</v>
+        <f>(((N10*(N10+1)/2)*(2*C3+C4+3*C6+2*C7))*((N10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1.4280499915499999E+19</v>
       </c>
       <c r="O12" s="1">
-        <f>O10^2*(2*G3+2*G4+2*G5+G7)+O10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>215642000500</v>
+        <f>(((O10*(O10+1)/2)*(2*C3+C4+3*C6+2*C7))*((O10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1.7835999908999999E+19</v>
       </c>
       <c r="P12" s="1">
-        <f>P10^2*(2*G3+2*G4+2*G5+G7)+P10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>247545000500</v>
+        <f>(((P10*(P10+1)/2)*(2*C3+C4+3*C6+2*C7))*((P10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>2.19374999025E+19</v>
       </c>
       <c r="Q12" s="1">
-        <f>Q10^2*(2*G3+2*G4+2*G5+G7)+Q10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>281648000500</v>
+        <f>(((Q10*(Q10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Q10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>2.6623999896E+19</v>
       </c>
       <c r="R12" s="1">
-        <f>R10^2*(2*G3+2*G4+2*G5+G7)+R10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>317951000500</v>
+        <f>(((R10*(R10+1)/2)*(2*C3+C4+3*C6+2*C7))*((R10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>3.19344998895E+19</v>
       </c>
       <c r="S12" s="1">
-        <f>S10^2*(2*G3+2*G4+2*G5+G7)+S10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>356454000500</v>
+        <f>(((S10*(S10+1)/2)*(2*C3+C4+3*C6+2*C7))*((S10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>3.7907999882999996E+19</v>
       </c>
       <c r="T12" s="1">
-        <f>T10^2*(2*G3+2*G4+2*G5+G7)+T10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>397157000500</v>
+        <f>(((T10*(T10+1)/2)*(2*C3+C4+3*C6+2*C7))*((T10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>4.4583499876499997E+19</v>
       </c>
       <c r="U12" s="1">
-        <f>U10^2*(2*G3+2*G4+2*G5+G7)+U10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>440060000500</v>
+        <f>(((U10*(U10+1)/2)*(2*C3+C4+3*C6+2*C7))*((U10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>5.1999999869999997E+19</v>
       </c>
       <c r="V12" s="1">
-        <f>V10^2*(2*G3+2*G4+2*G5+G7)+V10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>485163000500</v>
+        <f>(((V10*(V10+1)/2)*(2*C3+C4+3*C6+2*C7))*((V10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>6.0196499863499997E+19</v>
       </c>
       <c r="W12" s="1">
-        <f>W10^2*(2*G3+2*G4+2*G5+G7)+W10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>532466000500</v>
+        <f>(((W10*(W10+1)/2)*(2*C3+C4+3*C6+2*C7))*((W10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>6.9211999856999997E+19</v>
       </c>
       <c r="X12" s="1">
-        <f>X10^2*(2*G3+2*G4+2*G5+G7)+X10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>581969000500</v>
+        <f>(((X10*(X10+1)/2)*(2*C3+C4+3*C6+2*C7))*((X10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>7.9085499850499998E+19</v>
       </c>
       <c r="Y12" s="1">
-        <f>Y10^2*(2*G3+2*G4+2*G5+G7)+Y10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>633672000500</v>
+        <f>(((Y10*(Y10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Y10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>8.9855999844000006E+19</v>
       </c>
       <c r="Z12" s="1">
-        <f>Z10^2*(2*G3+2*G4+2*G5+G7)+Z10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>687575000500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+        <f>(((Z10*(Z10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Z10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1.015624998375E+20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4754,21 +4837,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" customWidth="1"/>
-    <col min="23" max="23" width="14.5" customWidth="1"/>
-    <col min="24" max="24" width="16.1640625" customWidth="1"/>
-    <col min="26" max="26" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -4785,9 +4863,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="4"/>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
@@ -4799,111 +4875,81 @@
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4">
-        <v>11</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="4">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="4">
-        <v>12</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="4">
-        <v>13</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1"/>
@@ -4913,306 +4959,298 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1">
+    <row r="10" spans="1:26">
       <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5">
-        <v>10000</v>
-      </c>
-      <c r="C10" s="4">
-        <v>20000</v>
-      </c>
-      <c r="D10" s="4">
-        <v>30000</v>
-      </c>
-      <c r="E10" s="4">
-        <v>40000</v>
-      </c>
-      <c r="F10" s="4">
-        <v>50000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>60000</v>
-      </c>
-      <c r="H10" s="4">
-        <v>70000</v>
-      </c>
-      <c r="I10" s="4">
-        <v>80000</v>
-      </c>
-      <c r="J10" s="4">
-        <v>90000</v>
-      </c>
-      <c r="K10" s="4">
-        <v>100000</v>
-      </c>
-      <c r="L10" s="4">
-        <v>110000</v>
-      </c>
-      <c r="M10" s="4">
-        <v>120000</v>
-      </c>
-      <c r="N10" s="4">
-        <v>130000</v>
-      </c>
-      <c r="O10" s="4">
-        <v>140000</v>
-      </c>
-      <c r="P10" s="4">
-        <v>150000</v>
-      </c>
-      <c r="Q10" s="4">
-        <v>160000</v>
-      </c>
-      <c r="R10" s="4">
-        <v>170000</v>
-      </c>
-      <c r="S10" s="4">
-        <v>180000</v>
-      </c>
-      <c r="T10" s="4">
-        <v>190000</v>
-      </c>
-      <c r="U10" s="4">
-        <v>200000</v>
-      </c>
-      <c r="V10" s="4">
-        <v>210000</v>
-      </c>
-      <c r="W10" s="4">
-        <v>220000</v>
-      </c>
-      <c r="X10" s="4">
-        <v>230000</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>240000</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="1" customFormat="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13">
+        <v>50</v>
+      </c>
+      <c r="C10" s="10">
+        <v>100</v>
+      </c>
+      <c r="D10" s="10">
+        <v>150</v>
+      </c>
+      <c r="E10" s="10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="10">
+        <v>250</v>
+      </c>
+      <c r="G10" s="10">
+        <v>300</v>
+      </c>
+      <c r="H10" s="10">
+        <v>350</v>
+      </c>
+      <c r="I10" s="10">
+        <v>400</v>
+      </c>
+      <c r="J10" s="10">
+        <v>450</v>
+      </c>
+      <c r="K10" s="10">
+        <v>500</v>
+      </c>
+      <c r="L10" s="10">
+        <v>550</v>
+      </c>
+      <c r="M10" s="10">
+        <v>600</v>
+      </c>
+      <c r="N10" s="10">
+        <v>650</v>
+      </c>
+      <c r="O10" s="10">
+        <v>700</v>
+      </c>
+      <c r="P10" s="10">
+        <v>750</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>800</v>
+      </c>
+      <c r="R10" s="10">
+        <v>850</v>
+      </c>
+      <c r="S10" s="10">
+        <v>900</v>
+      </c>
+      <c r="T10" s="10">
+        <v>950</v>
+      </c>
+      <c r="U10" s="10">
+        <v>1000</v>
+      </c>
+      <c r="V10" s="10">
+        <v>1050</v>
+      </c>
+      <c r="W10" s="10">
+        <v>1100</v>
+      </c>
+      <c r="X10" s="10">
+        <v>1150</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>1200</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <f>((B10-1)*(C3+C4+3*C6))*((B10*(B10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>16149787570</v>
+      </c>
+      <c r="C11" s="4">
+        <f>((C10-1)*(C3+C4+3*C6))*((C10*(C10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>129237075070</v>
+      </c>
+      <c r="D11" s="1">
+        <f>((D10-1)*(C3+C4+3*C6))*((D10*(D10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>436199362570</v>
+      </c>
+      <c r="E11" s="1">
+        <f>((E10-1)*(C3+C4+3*C6))*((E10*(E10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>1033974150070</v>
+      </c>
+      <c r="F11" s="1">
+        <f>((F10-1)*(C3+C4+3*C6))*((F10*(F10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>2019498937570</v>
+      </c>
+      <c r="G11" s="4">
+        <f>((G10-1)*(C3+C4+3*C6))*((G10*(G10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>3489711225070</v>
+      </c>
+      <c r="H11" s="1">
+        <f>((H10-1)*(C3+C4+3*C6))*((H10*(H10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>5541548512570</v>
+      </c>
+      <c r="I11" s="1">
+        <f>((I10-1)*(C3+C4+3*C6))*((I10*(I10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>8271948300070</v>
+      </c>
+      <c r="J11" s="1">
+        <f>((J10-1)*(C3+C4+3*C6))*((J10*(J10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>11777848087570</v>
+      </c>
+      <c r="K11" s="1">
+        <f>((K10-1)*(C3+C4+3*C6))*((K10*(K10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>16156185375070</v>
+      </c>
+      <c r="L11" s="1">
+        <f>((L10-1)*(C3+C4+3*C6))*((L10*(L10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>21503897662570</v>
+      </c>
+      <c r="M11" s="1">
+        <f>((M10-1)*(C3+C4+3*C6))*((M10)*(M10+1)/2*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>27917922450070</v>
+      </c>
+      <c r="N11" s="1">
+        <f>((N10-1)*(C3+C4+3*C6))*((N10*(N10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>35495197237570</v>
+      </c>
+      <c r="O11" s="1">
+        <f>((O10-1)*(C3+C4+3*C6))*((O10*(O10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>44332659525070</v>
+      </c>
+      <c r="P11" s="1">
+        <f>((P10-1)*(C3+C4+3*C6))*((P10*(P10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>54527246812570</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>((Q10-1)*(C3+C4+3*C6))*((Q10*(Q10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>66175896600070</v>
+      </c>
+      <c r="R11" s="1">
+        <f>((R10-1)*(C3+C4+3*C6))*((R10*(R10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>79375546387570</v>
+      </c>
+      <c r="S11" s="1">
+        <f>((S10-1)*(C3+C4+3*C6))*((S10*(S10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>94223133675070</v>
+      </c>
+      <c r="T11" s="1">
+        <f>((T10-1)*(C3+C4+3*C6))*((T10*(T10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>110815595962570</v>
+      </c>
+      <c r="U11" s="1">
+        <f>((U10-1)*(C3+C4+3*C6))*((U10*(U10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>129249870750070</v>
+      </c>
+      <c r="V11" s="1">
+        <f>((V10-1)*(C3+C4+3*C6))*((V10*(V10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>149622895537570</v>
+      </c>
+      <c r="W11" s="1">
+        <f>((W10-1)*(C3+C4+3*C6))*((W10*(W10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>172031607825070</v>
+      </c>
+      <c r="X11" s="1">
+        <f>((X10-1)*(C3+C4+3*C6))*((X10*(X10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>196572945112570</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>((Y10-1)*(C3+C4+3*C6))*((Y10*(Y10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>223343844900070</v>
+      </c>
+      <c r="Z11" s="1">
+        <f>((Z10-1)*(C3+C4+3*C6))*((Z10*(Z10+1)/2)*((2*C3)+(4*C5)+(4*C6)+(6*C7)))+C8</f>
+        <v>252441244687570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="5">
-        <f>B10^2*(2*C4+C3+C6)+B10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>4901580015</v>
-      </c>
-      <c r="C11" s="4">
-        <f>C10^2*(2*C4+C3+C6)+C10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>19603160015</v>
-      </c>
-      <c r="D11" s="1">
-        <f>D10^2*(2*C4+C3+C6)+D10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>44104740015</v>
-      </c>
-      <c r="E11" s="1">
-        <f>E10^2*(2*C4+C3+C6)+E10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>78406320015</v>
-      </c>
-      <c r="F11" s="1">
-        <f>F10^2*(2*C4+C3+C6)+F10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>122507900015</v>
-      </c>
-      <c r="G11" s="4">
-        <f>G10^2*(2*C4+C3+C6)+G10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>176409480015</v>
-      </c>
-      <c r="H11" s="1">
-        <f>H10^2*(2*C4+C3+C6)+H10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>240111060015</v>
-      </c>
-      <c r="I11" s="1">
-        <f>I10^2*(2*C4+C3+C6)+I10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>313612640015</v>
-      </c>
-      <c r="J11" s="1">
-        <f>J10^2*(2*C4+C3+C6)+J10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>396914220015</v>
-      </c>
-      <c r="K11" s="1">
-        <f>K10^2*(2*C4+C3+C6)+K10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>490015800015</v>
-      </c>
-      <c r="L11" s="1">
-        <f>L10^2*(2*C4+C3+C6)+L10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>592917380015</v>
-      </c>
-      <c r="M11" s="1">
-        <f>M10^2*(2*C4+C3+C6)+M10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>705618960015</v>
-      </c>
-      <c r="N11" s="1">
-        <f>N10^2*(2*C4+C3+C6)+N10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>828120540015</v>
-      </c>
-      <c r="O11" s="1">
-        <f>O10^2*(2*C4+C3+C6)+O10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>960422120015</v>
-      </c>
-      <c r="P11" s="1">
-        <f>P10^2*(2*C4+C3+C6)+P10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>1102523700015</v>
-      </c>
-      <c r="Q11" s="1">
-        <f>Q10^2*(2*C4+C3+C6)+Q10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>1254425280015</v>
-      </c>
-      <c r="R11" s="1">
-        <f>R10^2*(2*C4+C3+C6)+R10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>1416126860015</v>
-      </c>
-      <c r="S11" s="1">
-        <f>S10^2*(2*C4+C3+C6)+S10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>1587628440015</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T10^2*(2*C4+C3+C6)+T10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>1768930020015</v>
-      </c>
-      <c r="U11" s="1">
-        <f>U10^2*(2*C4+C3+C6)+U10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>1960031600015</v>
-      </c>
-      <c r="V11" s="1">
-        <f>V10^2*(2*C4+C3+C6)+V10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>2160933180015</v>
-      </c>
-      <c r="W11" s="1">
-        <f>W10^2*(2*C4+C3+C6)+W10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>2371634760015</v>
-      </c>
-      <c r="X11" s="1">
-        <f>X10^2*(2*C4+C3+C6)+X10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>2592136340015</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>Y10^2*(2*C4+C3+C6)+Y10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>2822437920015</v>
-      </c>
-      <c r="Z11" s="1">
-        <f>Z10^2*(2*C4+C3+C6)+Z10*(5*C6+C5+5*C4+C7)+C7</f>
-        <v>3062539500015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="1" customFormat="1">
-      <c r="A12" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="B12" s="5">
-        <f>B10^2*(2*G3+2*G4+2*G5+G7)+B10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>8001400015</v>
+        <f>(((B10*(B10+1)/2)*(2*C3+C4+3*C6+2*C7))*((B10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>21647587570</v>
       </c>
       <c r="C12" s="4">
-        <f>C10^2*(2*G3+2*G4+2*G5+G7)+C10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>32002800015</v>
+        <f>(((C10*(C10+1)/2)*(2*C3+C4+3*C6+2*C7))*((C10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>173232675070</v>
       </c>
       <c r="D12" s="1">
-        <f>D10^2*(2*G3+2*G4+2*G5+G7)+D10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>72004200015</v>
+        <f>(((D10*(D10+1)/2)*(2*C3+C4+3*C6+2*C7))*((D10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>584692762570</v>
       </c>
       <c r="E12" s="1">
-        <f>E10^2*(2*G3+2*G4+2*G5+G7)+E10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>128005600015</v>
+        <f>(((E10*(E10+1)/2)*(2*C3+C4+3*C6+2*C7))*((E10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>1385965350070</v>
       </c>
       <c r="F12" s="1">
-        <f>F10^2*(2*G3+2*G4+2*G5+G7)+F10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>200007000015</v>
+        <f>(((F10*(F10+1)/2)*(2*C3+C4+3*C6+2*C7))*((F10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>2706987937570</v>
       </c>
       <c r="G12" s="4">
-        <f>G10^2*(2*G3+2*G4+2*G5+G7)+G10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>288008400015</v>
+        <f>(((G10*(G10+1)/2)*(2*C3+C4+3*C6+2*C7))*((G10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>4677698025070</v>
       </c>
       <c r="H12" s="1">
-        <f>H10^2*(2*G3+2*G4+2*G5+G7)+H10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>392009800015</v>
+        <f>(((H10*(H10+1)/2)*(2*C3+C4+3*C6+2*C7))*((H10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>7428033112570</v>
       </c>
       <c r="I12" s="1">
-        <f>I10^2*(2*G3+2*G4+2*G5+G7)+I10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>512011200015</v>
+        <f>(((I10*(I10+1)/2)*(2*C3+C4+3*C6+2*C7))*((I10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>11087930700070</v>
       </c>
       <c r="J12" s="1">
-        <f>J10^2*(2*G3+2*G4+2*G5+G7)+J10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>648012600015</v>
+        <f>(((J10*(J10+1)/2)*(2*C3+C4+3*C6+2*C7))*((J10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>15787328287570</v>
       </c>
       <c r="K12" s="1">
-        <f>K10^2*(2*G3+2*G4+2*G5+G7)+K10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>800014000015</v>
+        <f>(((K10*(K10+1)/2)*(2*C3+C4+3*C6+2*C7))*((K10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>21656163375070</v>
       </c>
       <c r="L12" s="1">
-        <f>L10^2*(2*G3+2*G4+2*G5+G7)+L10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>968015400015</v>
+        <f>(((L10*(L10+1)/2)*(2*C3+C4+3*C6+2*C7))*((L10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>28824373462570</v>
       </c>
       <c r="M12" s="1">
-        <f>M10^2*(2*G3+2*G4+2*G5+G7)+M10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>1152016800015</v>
+        <f>(((M10*(M10+1)/2)*(2*C3+C4+3*C6+2*C7))*((M10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>37421896050070</v>
       </c>
       <c r="N12" s="1">
-        <f>N10^2*(2*G3+2*G4+2*G5+G7)+N10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>1352018200015</v>
+        <f>(((N10*(N10+1)/2)*(2*C3+C4+3*C6+2*C7))*((N10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>47578668637570</v>
       </c>
       <c r="O12" s="1">
-        <f>O10^2*(2*G3+2*G4+2*G5+G7)+O10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>1568019600015</v>
+        <f>(((O10*(O10+1)/2)*(2*C3+C4+3*C6+2*C7))*((O10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>59424628725070</v>
       </c>
       <c r="P12" s="1">
-        <f>P10^2*(2*G3+2*G4+2*G5+G7)+P10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>1800021000015</v>
+        <f>(((P10*(P10+1)/2)*(2*C3+C4+3*C6+2*C7))*((P10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>73089713812570</v>
       </c>
       <c r="Q12" s="1">
-        <f>Q10^2*(2*G3+2*G4+2*G5+G7)+Q10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>2048022400015</v>
+        <f>(((Q10*(Q10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Q10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>88703861400070</v>
       </c>
       <c r="R12" s="1">
-        <f>R10^2*(2*G3+2*G4+2*G5+G7)+R10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>2312023800015</v>
+        <f>(((R10*(R10+1)/2)*(2*C3+C4+3*C6+2*C7))*((R10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>106397008987570</v>
       </c>
       <c r="S12" s="1">
-        <f>S10^2*(2*G3+2*G4+2*G5+G7)+S10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>2592025200015</v>
+        <f>(((S10*(S10+1)/2)*(2*C3+C4+3*C6+2*C7))*((S10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>126299094075070</v>
       </c>
       <c r="T12" s="1">
-        <f>T10^2*(2*G3+2*G4+2*G5+G7)+T10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>2888026600015</v>
+        <f>(((T10*(T10+1)/2)*(2*C3+C4+3*C6+2*C7))*((T10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>148540054162570</v>
       </c>
       <c r="U12" s="1">
-        <f>U10^2*(2*G3+2*G4+2*G5+G7)+U10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>3200028000015</v>
+        <f>(((U10*(U10+1)/2)*(2*C3+C4+3*C6+2*C7))*((U10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>173249826750070</v>
       </c>
       <c r="V12" s="1">
-        <f>V10^2*(2*G3+2*G4+2*G5+G7)+V10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>3528029400015</v>
+        <f>(((V10*(V10+1)/2)*(2*C3+C4+3*C6+2*C7))*((V10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>200558349337570</v>
       </c>
       <c r="W12" s="1">
-        <f>W10^2*(2*G3+2*G4+2*G5+G7)+W10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>3872030800015</v>
+        <f>(((W10*(W10+1)/2)*(2*C3+C4+3*C6+2*C7))*((W10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>230595559425070</v>
       </c>
       <c r="X12" s="1">
-        <f>X10^2*(2*G3+2*G4+2*G5+G7)+X10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>4232032200015</v>
+        <f>(((X10*(X10+1)/2)*(2*C3+C4+3*C6+2*C7))*((X10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>263491394512570</v>
       </c>
       <c r="Y12" s="1">
-        <f>Y10^2*(2*G3+2*G4+2*G5+G7)+Y10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>4608033600015</v>
+        <f>(((Y10*(Y10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Y10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>299375792100070</v>
       </c>
       <c r="Z12" s="1">
-        <f>Z10^2*(2*G3+2*G4+2*G5+G7)+Z10*(2*G7+4*G6+5*G5)+G8</f>
-        <v>5000035000015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+        <f>(((Z10*(Z10+1)/2)*(2*C3+C4+3*C6+2*C7))*((Z10-1)*(C3+3*C5+5*C6+4*C7)))+C8</f>
+        <v>338378689687570</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
